--- a/report/grafiek.xlsx
+++ b/report/grafiek.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="360" yWindow="105" windowWidth="13395" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="gegevens en grafiek" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>N</t>
   </si>
@@ -30,10 +28,25 @@
     <t>Minimum Spanning Tree</t>
   </si>
   <si>
-    <t>afstand</t>
+    <t>NN: afstand</t>
   </si>
   <si>
-    <t>tijd (s)</t>
+    <t>SI: afstand</t>
+  </si>
+  <si>
+    <t>MST: afstand</t>
+  </si>
+  <si>
+    <t>NN: tijd (s)</t>
+  </si>
+  <si>
+    <t>SI: tijd (s)</t>
+  </si>
+  <si>
+    <t>MST: tijd (s)</t>
+  </si>
+  <si>
+    <t>n.v.t.</t>
   </si>
 </sst>
 </file>
@@ -41,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +64,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,23 +122,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -139,7 +254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>'gegevens en grafiek'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -151,16 +266,31 @@
           <c:spPr>
             <a:ln w="25400"/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$3:$A$6</c:f>
+              <c:f>'gegevens en grafiek'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -172,16 +302,31 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$3:$C$6</c:f>
+              <c:f>'gegevens en grafiek'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
@@ -193,6 +338,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.319999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -204,7 +361,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>'gegevens en grafiek'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -216,16 +373,31 @@
           <c:spPr>
             <a:ln w="25400"/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$3:$A$6</c:f>
+              <c:f>'gegevens en grafiek'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -237,16 +409,31 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$E$3:$E$6</c:f>
+              <c:f>'gegevens en grafiek'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
@@ -258,6 +445,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.923000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,7 +465,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$F$1</c:f>
+              <c:f>'gegevens en grafiek'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -281,16 +477,31 @@
           <c:spPr>
             <a:ln w="25400"/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$3:$A$6</c:f>
+              <c:f>'gegevens en grafiek'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -302,13 +513,28 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$G$3:$G$5</c:f>
+              <c:f>'gegevens en grafiek'!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -327,7 +553,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -337,16 +562,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45396992"/>
-        <c:axId val="110494272"/>
+        <c:axId val="124365824"/>
+        <c:axId val="96768512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45396992"/>
+        <c:axId val="124365824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -375,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110494272"/>
+        <c:crossAx val="96768512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110494272"/>
+        <c:axId val="96768512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -419,7 +645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45396992"/>
+        <c:crossAx val="124365824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,16 +671,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -474,6 +700,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A2:G11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A2:G11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="N" dataDxfId="6" dataCellStyle="40% - Accent1"/>
+    <tableColumn id="2" name="NN: afstand" dataDxfId="5"/>
+    <tableColumn id="3" name="NN: tijd (s)" dataDxfId="4"/>
+    <tableColumn id="4" name="SI: afstand" dataDxfId="3"/>
+    <tableColumn id="5" name="SI: tijd (s)" dataDxfId="2"/>
+    <tableColumn id="6" name="MST: afstand" dataDxfId="1"/>
+    <tableColumn id="7" name="MST: tijd (s)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,200 +1005,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>27295.450568299599</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>15754.345285397099</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>19624.814348789001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>1.415</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>2000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>37296.680449655199</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>21956.010679634499</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>26742.3154490257</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>11.007</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4000</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>52241.055826261603</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>31148.4976213874</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>37889.143797820499</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>86.811000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>8000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>74914.716390217</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>44070.014585685298</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>1.0760000000000001</v>
       </c>
-      <c r="F6" s="2">
-        <v>53835.545185318399</v>
-      </c>
-      <c r="G6" s="4">
-        <v>691.71199999999999</v>
+      <c r="F6" s="9">
+        <v>53561.683987373603</v>
+      </c>
+      <c r="G6" s="10">
+        <v>767.23199999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="5">
+        <v>16000</v>
+      </c>
+      <c r="B7" s="7">
+        <v>105756.532984784</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>62200.7938649153</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="5">
+        <v>32000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>148345.21145949699</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.3710000000000004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>87582.568326619003</v>
+      </c>
+      <c r="E8" s="8">
+        <v>16.984999999999999</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>64000</v>
+      </c>
+      <c r="B9" s="7">
+        <v>209286.285389545</v>
+      </c>
+      <c r="C9" s="8">
+        <v>17.084</v>
+      </c>
+      <c r="D9" s="7">
+        <v>123983.67133092201</v>
+      </c>
+      <c r="E9" s="8">
+        <v>68.923000000000002</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>128000</v>
+      </c>
+      <c r="B10" s="7">
+        <v>296095.39229459001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="D10" s="9">
+        <v>175352.09289288399</v>
+      </c>
+      <c r="E10" s="10">
+        <v>276.02199999999999</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>256000</v>
+      </c>
+      <c r="B11" s="9">
+        <v>420127.84459601197</v>
+      </c>
+      <c r="C11" s="10">
+        <v>367.58699999999999</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>